--- a/DataFiles/sample1.xlsx
+++ b/DataFiles/sample1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p\python\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD383878-24E9-411B-9164-FE3F468B842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64BF12-0C8F-4DEE-B7D4-044392641F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,12 +786,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -821,11 +827,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1131,10 +1138,14 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1190,10 +1201,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -1243,10 +1254,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -1296,10 +1307,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
@@ -1349,10 +1360,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
@@ -1402,10 +1413,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
@@ -1455,10 +1466,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="s">
@@ -1508,10 +1519,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C8" t="s">
@@ -1561,10 +1572,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C9" t="s">
@@ -1614,10 +1625,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C10" t="s">
@@ -1667,10 +1678,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C11" t="s">
